--- a/biology/Zoologie/Cybaeus_fujisanus/Cybaeus_fujisanus.xlsx
+++ b/biology/Zoologie/Cybaeus_fujisanus/Cybaeus_fujisanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cybaeus fujisanus est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cybaeus fujisanus est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la préfecture de Yamanashi au Japon[1],[2]. Elle se rencontre sur le mont Fuji dans la grotte Korin-no-douketsu.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la préfecture de Yamanashi au Japon,. Elle se rencontre sur le mont Fuji dans la grotte Korin-no-douketsu.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5,1 mm[3].
-La carapace du mâle décrit par Sugawara, Ihara et Nakano en 2021 mesure 2,12 mm de long sur 1,43 mm et l'abdomen 2,05 mm de long sur 1,57 mm et la carapace de la femelle mesure 2,34 mm de long sur 1,52 mm et l'abdomen 3,12 mm de long sur 2,31 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5,1 mm.
+La carapace du mâle décrit par Sugawara, Ihara et Nakano en 2021 mesure 2,12 mm de long sur 1,43 mm et l'abdomen 2,05 mm de long sur 1,57 mm et la carapace de la femelle mesure 2,34 mm de long sur 1,52 mm et l'abdomen 3,12 mm de long sur 2,31 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le mont Fuji.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Yaginuma, 1972 : « The fauna of the lava caves around Mt. Fuji-san IX. Araneae (Arachnida). » Bulletin of the National Museum of Nature and Science, vol. 15, p. 267-334.</t>
         </is>
